--- a/target/test-classes/dataProvider/WriteRWC.xlsx
+++ b/target/test-classes/dataProvider/WriteRWC.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="532">
   <si>
     <t>MCE Customer ID</t>
   </si>
@@ -1460,6 +1460,171 @@
   </si>
   <si>
     <t>AMOUNT DUE ($)</t>
+  </si>
+  <si>
+    <t>01/23/2023</t>
+  </si>
+  <si>
+    <t>16867.42</t>
+  </si>
+  <si>
+    <t>3267857</t>
+  </si>
+  <si>
+    <t>30944</t>
+  </si>
+  <si>
+    <t>S - Limited Partnership</t>
+  </si>
+  <si>
+    <t>440648226</t>
+  </si>
+  <si>
+    <t>12/01/2022</t>
+  </si>
+  <si>
+    <t>09/30/2023</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>7313559</t>
+  </si>
+  <si>
+    <t>3726517</t>
+  </si>
+  <si>
+    <t>5378479</t>
+  </si>
+  <si>
+    <t>3736931</t>
+  </si>
+  <si>
+    <t>3728902</t>
+  </si>
+  <si>
+    <t>3767396</t>
+  </si>
+  <si>
+    <t>3721354</t>
+  </si>
+  <si>
+    <t>3721165</t>
+  </si>
+  <si>
+    <t>3727748</t>
+  </si>
+  <si>
+    <t>3731549</t>
+  </si>
+  <si>
+    <t>5560174</t>
+  </si>
+  <si>
+    <t>3702031</t>
+  </si>
+  <si>
+    <t>5426566</t>
+  </si>
+  <si>
+    <t>3765913</t>
+  </si>
+  <si>
+    <t>6557215</t>
+  </si>
+  <si>
+    <t>5297637</t>
+  </si>
+  <si>
+    <t>3720001</t>
+  </si>
+  <si>
+    <t>3701446</t>
+  </si>
+  <si>
+    <t>3705328</t>
+  </si>
+  <si>
+    <t>3701000</t>
+  </si>
+  <si>
+    <t>3705226</t>
+  </si>
+  <si>
+    <t>3766772</t>
+  </si>
+  <si>
+    <t>3716329</t>
+  </si>
+  <si>
+    <t>3714109</t>
+  </si>
+  <si>
+    <t>3701632</t>
+  </si>
+  <si>
+    <t>5328126</t>
+  </si>
+  <si>
+    <t>3701941</t>
+  </si>
+  <si>
+    <t>3721500</t>
+  </si>
+  <si>
+    <t>3706182</t>
+  </si>
+  <si>
+    <t>3705166</t>
+  </si>
+  <si>
+    <t>3755133</t>
+  </si>
+  <si>
+    <t>5695386</t>
+  </si>
+  <si>
+    <t>3701638</t>
+  </si>
+  <si>
+    <t>3723381</t>
+  </si>
+  <si>
+    <t>3704518</t>
+  </si>
+  <si>
+    <t>3704152</t>
+  </si>
+  <si>
+    <t>5300520</t>
+  </si>
+  <si>
+    <t>4232162</t>
+  </si>
+  <si>
+    <t>3709480</t>
+  </si>
+  <si>
+    <t>3705121</t>
+  </si>
+  <si>
+    <t>3701470</t>
+  </si>
+  <si>
+    <t>3712314</t>
+  </si>
+  <si>
+    <t>3705984</t>
+  </si>
+  <si>
+    <t>3711597</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS0</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2070,6 +2235,143 @@
         <v>464</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>455</v>
+      </c>
+      <c r="J3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K3" t="s">
+        <v>456</v>
+      </c>
+      <c r="L3" t="s">
+        <v>400</v>
+      </c>
+      <c r="M3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N3" t="s">
+        <v>403</v>
+      </c>
+      <c r="O3" t="s">
+        <v>423</v>
+      </c>
+      <c r="P3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>423</v>
+      </c>
+      <c r="R3" t="s">
+        <v>409</v>
+      </c>
+      <c r="S3" t="s">
+        <v>458</v>
+      </c>
+      <c r="T3" t="s">
+        <v>412</v>
+      </c>
+      <c r="U3" t="s">
+        <v>423</v>
+      </c>
+      <c r="V3" t="s">
+        <v>415</v>
+      </c>
+      <c r="W3" t="s">
+        <v>423</v>
+      </c>
+      <c r="X3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>462</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2077,7 +2379,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2165,6 +2467,47 @@
         <v>464</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" t="s">
+        <v>477</v>
+      </c>
+      <c r="K3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L3" t="s">
+        <v>475</v>
+      </c>
+      <c r="M3" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2172,7 +2515,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2344,6 +2687,172 @@
         <v>46</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>482</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2351,7 +2860,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BJ2"/>
+  <dimension ref="A1:BJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2733,6 +3242,376 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>477</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>477</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>485</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2740,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2814,6 +3693,72 @@
         <v>46</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2821,7 +3766,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:FU2"/>
+  <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3893,6 +4838,1072 @@
         <v>118</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>228</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>232</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>240</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>244</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>248</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>252</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>256</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>264</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>272</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>276</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>280</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>284</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>288</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>118</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>292</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>118</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>296</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>300</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>118</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>304</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>118</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>308</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>312</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>116</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>118</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>316</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>118</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>320</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>116</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>324</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>328</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>332</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>336</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>340</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>344</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>118</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>348</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>116</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>488</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" t="s">
+        <v>490</v>
+      </c>
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>491</v>
+      </c>
+      <c r="R4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T4" t="s">
+        <v>492</v>
+      </c>
+      <c r="U4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>501</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>502</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>503</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>504</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>505</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>507</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>508</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>505</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>509</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>510</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>511</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>505</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>232</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>512</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>236</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>513</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>240</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>244</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>515</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>248</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>516</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>252</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>517</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>256</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>518</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>519</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>264</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>505</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>268</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>520</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>272</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>521</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>276</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>522</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>280</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>523</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>284</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>524</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>288</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>525</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>292</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>505</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>296</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>526</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>300</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>527</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>304</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>528</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>308</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>529</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>118</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>312</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>505</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>316</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>505</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>320</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>505</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>118</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>324</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>118</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>328</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>118</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>332</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>118</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>336</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>118</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>340</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>118</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>344</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>118</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>348</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3900,7 +5911,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3937,6 +5948,12 @@
       <c r="J1" t="s">
         <v>364</v>
       </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -3967,6 +5984,55 @@
         <v>362</v>
       </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>530</v>
+      </c>
+      <c r="L4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3977,7 +6043,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4011,6 +6077,34 @@
         <v>369</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4018,7 +6112,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4142,6 +6236,65 @@
         <v>449</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>393</v>
+      </c>
+      <c r="R3" t="s">
+        <v>395</v>
+      </c>
+      <c r="S3" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4149,7 +6302,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4363,6 +6516,110 @@
         <v>423</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" t="s">
+        <v>412</v>
+      </c>
+      <c r="L3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" t="s">
+        <v>418</v>
+      </c>
+      <c r="P3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>421</v>
+      </c>
+      <c r="R3" t="s">
+        <v>423</v>
+      </c>
+      <c r="S3" t="s">
+        <v>425</v>
+      </c>
+      <c r="T3" t="s">
+        <v>423</v>
+      </c>
+      <c r="U3" t="s">
+        <v>428</v>
+      </c>
+      <c r="V3" t="s">
+        <v>423</v>
+      </c>
+      <c r="W3" t="s">
+        <v>431</v>
+      </c>
+      <c r="X3" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
